--- a/raw-data-prep/raw_data/Note_sheet_TH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TH.xlsx
@@ -36,9 +36,6 @@
     <t>RA</t>
   </si>
   <si>
-    <t>Good Session</t>
-  </si>
-  <si>
     <t>Melissa</t>
   </si>
   <si>
@@ -48,15 +45,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 6</t>
-  </si>
-  <si>
     <t>Maybe</t>
   </si>
   <si>
@@ -168,16 +156,28 @@
     <t>Said he was suspicious that the person wasn't real after debriefing but when asked what he thought was going on before being debriefed he said he just thought that the feedback might have been intended to anger him</t>
   </si>
   <si>
-    <t>Game 1</t>
-  </si>
-  <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 5</t>
-  </si>
-  <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Game.1</t>
+  </si>
+  <si>
+    <t>Game.2</t>
+  </si>
+  <si>
+    <t>Game.3</t>
+  </si>
+  <si>
+    <t>Game.4</t>
+  </si>
+  <si>
+    <t>Game.5</t>
+  </si>
+  <si>
+    <t>Game.6</t>
+  </si>
+  <si>
+    <t>Good.Session</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,28 +551,28 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -583,7 +583,7 @@
         <v>0.21875</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>150</v>
@@ -613,10 +613,10 @@
         <v>173</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -627,7 +627,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>151</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -671,7 +671,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>152</v>
@@ -701,10 +701,10 @@
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -712,10 +712,10 @@
         <v>41594</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>153</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -759,7 +759,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>154</v>
@@ -789,10 +789,10 @@
         <v>92</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -803,7 +803,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>156</v>
@@ -833,7 +833,7 @@
         <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -844,7 +844,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>155</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -888,7 +888,7 @@
         <v>0.25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>157</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -932,7 +932,7 @@
         <v>0.25</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>158</v>
@@ -962,10 +962,10 @@
         <v>109</v>
       </c>
       <c r="M10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -976,7 +976,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>159</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1017,7 +1017,7 @@
         <v>0.25</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>160</v>
@@ -1047,10 +1047,10 @@
         <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1061,7 +1061,7 @@
         <v>0.17708333333333334</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>161</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1105,7 +1105,7 @@
         <v>0.21875</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>162</v>
@@ -1135,10 +1135,10 @@
         <v>104</v>
       </c>
       <c r="M14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1149,7 +1149,7 @@
         <v>0.21875</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>163</v>
@@ -1179,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1193,7 +1193,7 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>164</v>
@@ -1223,10 +1223,10 @@
         <v>55</v>
       </c>
       <c r="M16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1237,7 +1237,7 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>165</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1281,7 +1281,7 @@
         <v>0.1875</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>167</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1325,7 +1325,7 @@
         <v>0.1875</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>166</v>
@@ -1355,10 +1355,10 @@
         <v>67</v>
       </c>
       <c r="M19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1369,7 +1369,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>168</v>
@@ -1399,10 +1399,10 @@
         <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1413,7 +1413,7 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>169</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1457,7 +1457,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>170</v>
@@ -1487,10 +1487,10 @@
         <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1501,7 +1501,7 @@
         <v>0.25</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>171</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1545,7 +1545,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>173</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1589,7 +1589,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>172</v>
@@ -1619,10 +1619,10 @@
         <v>138</v>
       </c>
       <c r="M25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1633,7 +1633,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>174</v>
@@ -1663,10 +1663,10 @@
         <v>99</v>
       </c>
       <c r="M26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1677,7 +1677,7 @@
         <v>0.25</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>175</v>
@@ -1707,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1721,7 +1721,7 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>177</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1762,7 +1762,7 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>176</v>
@@ -1792,7 +1792,7 @@
         <v>75</v>
       </c>
       <c r="M29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1803,7 +1803,7 @@
         <v>0.17708333333333334</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>178</v>
@@ -1833,7 +1833,7 @@
         <v>106</v>
       </c>
       <c r="M30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1844,7 +1844,7 @@
         <v>0.21875</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>180</v>
@@ -1874,10 +1874,10 @@
         <v>67</v>
       </c>
       <c r="M31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1888,7 +1888,7 @@
         <v>0.21875</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>179</v>
@@ -1918,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1932,7 +1932,7 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>182</v>
@@ -1962,10 +1962,10 @@
         <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1976,7 +1976,7 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>181</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2020,7 +2020,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>185</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2061,7 +2061,7 @@
         <v>0.125</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>183</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2099,10 +2099,10 @@
         <v>41688</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>184</v>
@@ -2132,10 +2132,10 @@
         <v>140</v>
       </c>
       <c r="M37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2146,7 +2146,7 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D38">
         <v>186</v>
@@ -2176,10 +2176,10 @@
         <v>80</v>
       </c>
       <c r="M38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2190,7 +2190,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>189</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2231,7 +2231,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>187</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2272,7 +2272,7 @@
         <v>0.125</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>190</v>
@@ -2302,10 +2302,10 @@
         <v>31</v>
       </c>
       <c r="M41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data-prep/raw_data/Note_sheet_TH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TH.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$41</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
   <si>
     <t>Subject</t>
   </si>
@@ -69,9 +72,6 @@
     <t>MB</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>no suspicions</t>
   </si>
   <si>
@@ -156,35 +156,35 @@
     <t>Said he was suspicious that the person wasn't real after debriefing but when asked what he thought was going on before being debriefed he said he just thought that the feedback might have been intended to anger him</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Game.1</t>
-  </si>
-  <si>
-    <t>Game.2</t>
-  </si>
-  <si>
-    <t>Game.3</t>
-  </si>
-  <si>
-    <t>Game.4</t>
-  </si>
-  <si>
-    <t>Game.5</t>
-  </si>
-  <si>
-    <t>Game.6</t>
-  </si>
-  <si>
-    <t>Good.Session</t>
+    <t>Game 2</t>
+  </si>
+  <si>
+    <t>Game 4</t>
+  </si>
+  <si>
+    <t>Game 6</t>
+  </si>
+  <si>
+    <t>Good Session</t>
+  </si>
+  <si>
+    <t>Notes_t</t>
+  </si>
+  <si>
+    <t>Game 1</t>
+  </si>
+  <si>
+    <t>Game 3</t>
+  </si>
+  <si>
+    <t>Game 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +307,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -341,6 +342,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,22 +518,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -551,31 +553,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41956</v>
       </c>
@@ -619,7 +621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41594</v>
       </c>
@@ -657,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41594</v>
       </c>
@@ -671,7 +673,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>152</v>
@@ -701,21 +703,21 @@
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41594</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>153</v>
@@ -748,10 +750,10 @@
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41594</v>
       </c>
@@ -792,10 +794,10 @@
         <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41596</v>
       </c>
@@ -836,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41596</v>
       </c>
@@ -844,7 +846,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>155</v>
@@ -877,10 +879,10 @@
         <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41596</v>
       </c>
@@ -888,7 +890,7 @@
         <v>0.25</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>157</v>
@@ -921,10 +923,10 @@
         <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41596</v>
       </c>
@@ -965,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41962</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41962</v>
       </c>
@@ -1050,10 +1052,10 @@
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41963</v>
       </c>
@@ -1094,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="N13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41963</v>
       </c>
@@ -1138,10 +1140,10 @@
         <v>9</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41963</v>
       </c>
@@ -1182,10 +1184,10 @@
         <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41964</v>
       </c>
@@ -1226,10 +1228,10 @@
         <v>8</v>
       </c>
       <c r="N16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41964</v>
       </c>
@@ -1270,10 +1272,10 @@
         <v>8</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41964</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41964</v>
       </c>
@@ -1358,10 +1360,10 @@
         <v>8</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41964</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41964</v>
       </c>
@@ -1446,10 +1448,10 @@
         <v>8</v>
       </c>
       <c r="N21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41975</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>170</v>
@@ -1490,10 +1492,10 @@
         <v>8</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41975</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>0.25</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>171</v>
@@ -1534,10 +1536,10 @@
         <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41976</v>
       </c>
@@ -1578,10 +1580,10 @@
         <v>8</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41976</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41976</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41976</v>
       </c>
@@ -1710,10 +1712,10 @@
         <v>8</v>
       </c>
       <c r="N27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41977</v>
       </c>
@@ -1754,7 +1756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41977</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>176</v>
@@ -1795,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41977</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>0.17708333333333334</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>178</v>
@@ -1836,7 +1838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41977</v>
       </c>
@@ -1877,10 +1879,10 @@
         <v>8</v>
       </c>
       <c r="N31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41977</v>
       </c>
@@ -1888,7 +1890,7 @@
         <v>0.21875</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>179</v>
@@ -1921,10 +1923,10 @@
         <v>8</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41978</v>
       </c>
@@ -1965,10 +1967,10 @@
         <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41978</v>
       </c>
@@ -2009,10 +2011,10 @@
         <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>41688</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41688</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>0.125</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>183</v>
@@ -2094,15 +2096,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41688</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>184</v>
@@ -2135,10 +2137,10 @@
         <v>9</v>
       </c>
       <c r="N37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41688</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38">
         <v>186</v>
@@ -2179,10 +2181,10 @@
         <v>8</v>
       </c>
       <c r="N38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41689</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41689</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>187</v>
@@ -2264,7 +2266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41695</v>
       </c>
@@ -2305,34 +2307,35 @@
         <v>9</v>
       </c>
       <c r="N41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_TH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TH.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,6 +227,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -275,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,8 +525,8 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,37 +808,40 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>434</v>
+        <v>563</v>
       </c>
       <c r="I7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J7">
-        <v>1354</v>
+        <v>436</v>
       </c>
       <c r="K7">
-        <v>203</v>
+        <v>424</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -846,40 +852,37 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>563</v>
+        <v>434</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J8">
-        <v>436</v>
+        <v>1354</v>
       </c>
       <c r="K8">
-        <v>424</v>
+        <v>203</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
         <v>8</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1283,40 +1286,40 @@
         <v>0.1875</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="I18">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="K18">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M18" t="s">
         <v>8</v>
       </c>
       <c r="N18" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1327,40 +1330,40 @@
         <v>0.1875</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J19">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="L19">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M19" t="s">
         <v>8</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1547,40 +1550,40 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>172</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
         <v>7</v>
       </c>
-      <c r="D24">
-        <v>173</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
-        <v>521</v>
+        <v>309</v>
       </c>
       <c r="I24">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>3276</v>
+        <v>1430</v>
       </c>
       <c r="K24">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s">
         <v>8</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1591,40 +1594,40 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>309</v>
+        <v>521</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J25">
-        <v>1430</v>
+        <v>3276</v>
       </c>
       <c r="K25">
+        <v>13</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" t="s">
         <v>35</v>
-      </c>
-      <c r="L25">
-        <v>138</v>
-      </c>
-      <c r="M25" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1723,34 +1726,34 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
-        <v>483</v>
+        <v>342</v>
       </c>
       <c r="I28">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J28">
-        <v>1728</v>
+        <v>1398</v>
       </c>
       <c r="K28">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M28" t="s">
         <v>8</v>
@@ -1764,34 +1767,34 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>342</v>
+        <v>483</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J29">
-        <v>1398</v>
+        <v>1728</v>
       </c>
       <c r="K29">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="L29">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="M29" t="s">
         <v>8</v>
@@ -1846,40 +1849,40 @@
         <v>0.21875</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="I31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J31">
-        <v>1936</v>
+        <v>1849</v>
       </c>
       <c r="K31">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="L31">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
         <v>8</v>
       </c>
       <c r="N31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1890,40 +1893,40 @@
         <v>0.21875</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>539</v>
+        <v>396</v>
       </c>
       <c r="I32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32">
-        <v>1849</v>
+        <v>1936</v>
       </c>
       <c r="K32">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M32" t="s">
         <v>8</v>
       </c>
       <c r="N32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -1934,40 +1937,40 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>228</v>
+        <v>455</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J33">
-        <v>924</v>
+        <v>1094</v>
       </c>
       <c r="K33">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="L33">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M33" t="s">
         <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -1978,40 +1981,40 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>455</v>
+        <v>228</v>
       </c>
       <c r="I34">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J34">
-        <v>1094</v>
+        <v>924</v>
       </c>
       <c r="K34">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M34" t="s">
         <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2019,34 +2022,34 @@
         <v>41688</v>
       </c>
       <c r="B35" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>412</v>
+        <v>309</v>
       </c>
       <c r="I35">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J35">
-        <v>724</v>
+        <v>1570</v>
       </c>
       <c r="K35">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2059,85 +2062,85 @@
       <c r="A36" s="1">
         <v>41688</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.125</v>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
       </c>
       <c r="D36">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H36">
-        <v>309</v>
+        <v>425</v>
       </c>
       <c r="I36">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J36">
-        <v>1570</v>
+        <v>1231</v>
       </c>
       <c r="K36">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="M36" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41688</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>41</v>
+      <c r="B37" s="2">
+        <v>0.16666666666666666</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="I37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J37">
-        <v>1231</v>
+        <v>724</v>
       </c>
       <c r="K37">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="L37">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>9</v>
-      </c>
-      <c r="N37" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2189,34 +2192,34 @@
         <v>41689</v>
       </c>
       <c r="B39" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="I39">
         <v>10</v>
       </c>
       <c r="J39">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>265</v>
+        <v>366</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2230,34 +2233,34 @@
         <v>41689</v>
       </c>
       <c r="B40" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="I40">
         <v>10</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="K40">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2311,7 +2314,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N41"/>
+  <autoFilter ref="A1:N41">
+    <sortState ref="A2:N41">
+      <sortCondition ref="D1:D41"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data-prep/raw_data/Note_sheet_TH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TH.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -156,34 +156,34 @@
     <t>Said he was suspicious that the person wasn't real after debriefing but when asked what he thought was going on before being debriefed he said he just thought that the feedback might have been intended to anger him</t>
   </si>
   <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 6</t>
-  </si>
-  <si>
-    <t>Good Session</t>
-  </si>
-  <si>
     <t>Notes_t</t>
   </si>
   <si>
-    <t>Game 1</t>
-  </si>
-  <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 5</t>
+    <t>Game.1</t>
+  </si>
+  <si>
+    <t>Game.2</t>
+  </si>
+  <si>
+    <t>Game.3</t>
+  </si>
+  <si>
+    <t>Game.4</t>
+  </si>
+  <si>
+    <t>Game.5</t>
+  </si>
+  <si>
+    <t>Game.6</t>
+  </si>
+  <si>
+    <t>goodSession</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,8 +525,8 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,28 +556,28 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">

--- a/raw-data-prep/raw_data/Note_sheet_TH.xlsx
+++ b/raw-data-prep/raw_data/Note_sheet_TH.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="230" windowWidth="14810" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$41</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>Subject</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>No suspicions, did not know what was being studied</t>
-  </si>
-  <si>
-    <t>(?) On same sheet</t>
   </si>
   <si>
     <t>Once I asked to set distraction time he was a little suspicious</t>
@@ -183,7 +180,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,8 +216,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,18 +525,19 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -556,36 +557,36 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
-        <v>52</v>
-      </c>
       <c r="N1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>41956</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.21875</v>
+      <c r="B2" s="3">
+        <v>0.71875</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -624,11 +625,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>41594</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
@@ -668,11 +669,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>41594</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.5</v>
       </c>
       <c r="C4" t="s">
@@ -712,13 +713,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>41594</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -756,12 +755,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>41594</v>
       </c>
-      <c r="B6" s="2">
-        <v>8.3333333333333329E-2</v>
+      <c r="B6" s="3">
+        <v>0.58333333333333337</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -800,12 +799,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>41596</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.20833333333333334</v>
+      <c r="B7" s="3">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -844,12 +843,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>41596</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.20833333333333334</v>
+      <c r="B8" s="3">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -885,12 +884,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>41596</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.25</v>
+      <c r="B9" s="3">
+        <v>0.75</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -929,12 +928,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>41596</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.25</v>
+      <c r="B10" s="3">
+        <v>0.75</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -973,12 +972,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>41962</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.20833333333333334</v>
+      <c r="B11" s="3">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1014,12 +1013,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>41962</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.25</v>
+      <c r="B12" s="3">
+        <v>0.75</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1058,12 +1057,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>41963</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.17708333333333334</v>
+      <c r="B13" s="3">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1102,12 +1101,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>41963</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.21875</v>
+      <c r="B14" s="3">
+        <v>0.71875</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1146,12 +1145,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>41963</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.21875</v>
+      <c r="B15" s="3">
+        <v>0.71875</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1190,12 +1189,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>41964</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.14583333333333334</v>
+      <c r="B16" s="3">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1234,12 +1233,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>41964</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.14583333333333334</v>
+      <c r="B17" s="3">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1278,12 +1277,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>41964</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.1875</v>
+      <c r="B18" s="3">
+        <v>0.6875</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1322,12 +1321,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>41964</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.1875</v>
+      <c r="B19" s="3">
+        <v>0.6875</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1366,12 +1365,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>41964</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.22916666666666666</v>
+      <c r="B20" s="3">
+        <v>0.72916666666666663</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1410,12 +1409,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>41964</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.27083333333333331</v>
+      <c r="B21" s="3">
+        <v>0.77083333333333326</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1454,12 +1453,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>41975</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.20833333333333334</v>
+      <c r="B22" s="3">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -1498,12 +1497,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>41975</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+      <c r="B23" s="3">
+        <v>0.75</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -1542,12 +1541,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>41976</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.20833333333333334</v>
+      <c r="B24" s="3">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1586,12 +1585,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>41976</v>
       </c>
-      <c r="B25" s="2">
-        <v>0.20833333333333334</v>
+      <c r="B25" s="3">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1630,12 +1629,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>41976</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.25</v>
+      <c r="B26" s="3">
+        <v>0.75</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1674,12 +1673,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>41976</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.25</v>
+      <c r="B27" s="3">
+        <v>0.75</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1718,12 +1717,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>41977</v>
       </c>
-      <c r="B28" s="2">
-        <v>0.13541666666666666</v>
+      <c r="B28" s="3">
+        <v>0.63541666666666663</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1759,12 +1758,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>41977</v>
       </c>
-      <c r="B29" s="2">
-        <v>0.13541666666666666</v>
+      <c r="B29" s="3">
+        <v>0.63541666666666663</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1800,12 +1799,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>41977</v>
       </c>
-      <c r="B30" s="2">
-        <v>0.17708333333333334</v>
+      <c r="B30" s="3">
+        <v>0.67708333333333337</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -1841,12 +1840,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>41977</v>
       </c>
-      <c r="B31" s="2">
-        <v>0.21875</v>
+      <c r="B31" s="3">
+        <v>0.71875</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -1885,12 +1884,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>41977</v>
       </c>
-      <c r="B32" s="2">
-        <v>0.21875</v>
+      <c r="B32" s="3">
+        <v>0.71875</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1929,12 +1928,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>41978</v>
       </c>
-      <c r="B33" s="2">
-        <v>0.14583333333333334</v>
+      <c r="B33" s="3">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1973,12 +1972,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>41978</v>
       </c>
-      <c r="B34" s="2">
-        <v>0.14583333333333334</v>
+      <c r="B34" s="3">
+        <v>0.64583333333333337</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -2017,12 +2016,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>41688</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.125</v>
+      <c r="B35" s="3">
+        <v>0.625</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -2058,13 +2057,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>41688</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>18</v>
       </c>
@@ -2099,15 +2096,15 @@
         <v>9</v>
       </c>
       <c r="N36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>41688</v>
       </c>
-      <c r="B37" s="2">
-        <v>0.16666666666666666</v>
+      <c r="B37" s="3">
+        <v>0.66666666666666663</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -2143,12 +2140,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>41688</v>
       </c>
-      <c r="B38" s="2">
-        <v>0.26041666666666669</v>
+      <c r="B38" s="3">
+        <v>0.76041666666666674</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -2184,14 +2181,14 @@
         <v>8</v>
       </c>
       <c r="N38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>41689</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>0.41666666666666669</v>
       </c>
       <c r="C39" t="s">
@@ -2228,11 +2225,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>41689</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="C40" t="s">
@@ -2269,12 +2266,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>41695</v>
       </c>
-      <c r="B41" s="2">
-        <v>0.125</v>
+      <c r="B41" s="3">
+        <v>0.625</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -2310,12 +2307,12 @@
         <v>9</v>
       </c>
       <c r="N41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N41">
-    <sortState ref="A2:N41">
+    <sortState ref="A2:O41">
       <sortCondition ref="D1:D41"/>
     </sortState>
   </autoFilter>
@@ -2330,7 +2327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2342,7 +2339,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
